--- a/data/MasterALDD.xlsx
+++ b/data/MasterALDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rylee\OneDrive\Desktop\REPOSITS\DeerD2D\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922F90BC-0CFC-4533-927E-D4ABACC5541F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC4655F-5AC9-4D37-9C3D-3C37FC0D41F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8" yWindow="0" windowWidth="10530" windowHeight="11512" xr2:uid="{D742D1E0-CCB4-430A-9053-B4F87A0B191B}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="156">
   <si>
     <t>2016-2017</t>
   </si>
@@ -475,39 +475,6 @@
     <t>upper bound of estimated fawns harvested</t>
   </si>
   <si>
-    <t>seasons</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>&lt;3.5</t>
-  </si>
-  <si>
-    <t>≥3.5</t>
-  </si>
-  <si>
-    <t>Post-breeding</t>
-  </si>
-  <si>
-    <t>Parturition</t>
-  </si>
-  <si>
-    <t>Breeding</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
     <t>season(s)</t>
   </si>
   <si>
@@ -517,191 +484,53 @@
     <t>data / raw / hunter_survey</t>
   </si>
   <si>
-    <t>h_antlered</t>
+    <t>bucks</t>
   </si>
   <si>
-    <t>h_unantlered</t>
+    <t>bucks_low</t>
   </si>
   <si>
-    <t>h_unknown</t>
+    <t>bucks_upp</t>
   </si>
   <si>
-    <t>h_total</t>
+    <t>does</t>
   </si>
   <si>
-    <t>buck_low</t>
+    <t>does_low</t>
   </si>
   <si>
-    <t>buck_upp</t>
+    <t>does_upp</t>
   </si>
   <si>
-    <t>doe</t>
+    <t>fawns</t>
   </si>
   <si>
-    <t>buck</t>
+    <t>fawns_low</t>
   </si>
   <si>
-    <t>doe_low</t>
+    <t>fawns_upp</t>
   </si>
   <si>
-    <t>doe_upp</t>
+    <t>antlered</t>
   </si>
   <si>
-    <t>fawn</t>
+    <t>unknown</t>
   </si>
   <si>
-    <t>fawn_low</t>
+    <t>harvest</t>
   </si>
   <si>
-    <t>fawn_upp</t>
+    <t>season</t>
   </si>
   <si>
-    <t>Landownership</t>
-  </si>
-  <si>
-    <t>Age Class</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>Harvest (M)</t>
-  </si>
-  <si>
-    <t>Harvest (F)</t>
-  </si>
-  <si>
-    <t>Natural (M)</t>
-  </si>
-  <si>
-    <t>Natural (F)</t>
-  </si>
-  <si>
-    <t>Unknown (M)</t>
-  </si>
-  <si>
-    <t>Unknown (F)</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>Effective n</t>
-  </si>
-  <si>
-    <t>Survival Rate</t>
-  </si>
-  <si>
-    <t>Survival CI</t>
-  </si>
-  <si>
-    <t>Harvest Rate</t>
-  </si>
-  <si>
-    <t>Harvest CI</t>
-  </si>
-  <si>
-    <t>Natural Rate</t>
-  </si>
-  <si>
-    <t>Natural CI</t>
-  </si>
-  <si>
-    <t>Unknown Rate</t>
-  </si>
-  <si>
-    <t>Unknown CI</t>
-  </si>
-  <si>
-    <t>1.000–1.000</t>
-  </si>
-  <si>
-    <t>0.000–0.000</t>
-  </si>
-  <si>
-    <t>0.554–0.919</t>
-  </si>
-  <si>
-    <t>0.081–0.446</t>
-  </si>
-  <si>
-    <t>0.533–0.986</t>
-  </si>
-  <si>
-    <t>0.014–0.467</t>
-  </si>
-  <si>
-    <t>0.459–0.950</t>
-  </si>
-  <si>
-    <t>0.050–0.541</t>
-  </si>
-  <si>
-    <t>0.346–0.725</t>
-  </si>
-  <si>
-    <t>0.203–0.598</t>
-  </si>
-  <si>
-    <t>0.010–0.370</t>
-  </si>
-  <si>
-    <t>0.034–0.405</t>
-  </si>
-  <si>
-    <t>0.213–0.601</t>
-  </si>
-  <si>
-    <t>0.129–0.624</t>
-  </si>
-  <si>
-    <t>0.467–0.896</t>
-  </si>
-  <si>
-    <t>0.104–0.533</t>
-  </si>
-  <si>
-    <t>0.779–0.995</t>
-  </si>
-  <si>
-    <t>0.005–0.221</t>
-  </si>
-  <si>
-    <t>0.804–0.995</t>
-  </si>
-  <si>
-    <t>0.005–0.196</t>
-  </si>
-  <si>
-    <t>0.778–0.950</t>
-  </si>
-  <si>
-    <t>0.050–0.222</t>
-  </si>
-  <si>
-    <t>0.689–0.915</t>
-  </si>
-  <si>
-    <t>0.067–0.276</t>
+    <t>antlerless</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -770,12 +599,6 @@
       <color indexed="8"/>
       <name val="Aptos"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -851,9 +674,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,16 +704,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1248,11 +1063,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E6AC95-FB74-4A23-BE7C-E68AED0BCE4A}">
   <dimension ref="A1:O622"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.45"/>
@@ -1275,46 +1090,46 @@
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -2716,7 +2531,7 @@
       <c r="F71" s="5">
         <v>76040</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="7">
         <v>94471</v>
       </c>
       <c r="H71" s="5">
@@ -28532,923 +28347,353 @@
   <dimension ref="B2:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B2" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>170</v>
-      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="9">
-        <v>15</v>
-      </c>
-      <c r="E3" s="9">
-        <v>13</v>
-      </c>
-      <c r="F3" s="9">
-        <v>28</v>
-      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="9">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9">
-        <v>31</v>
-      </c>
-      <c r="F4" s="9">
-        <v>42</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="9">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9">
-        <v>9</v>
-      </c>
-      <c r="F5" s="9">
-        <v>29</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="9">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9">
-        <v>26</v>
-      </c>
-      <c r="F6" s="9">
-        <v>42</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="11">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11">
-        <v>7</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="11">
-        <v>7</v>
-      </c>
-      <c r="E15" s="11">
-        <v>3</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>188</v>
-      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="13">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L19" s="13">
-        <v>0</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="13">
-        <v>28</v>
-      </c>
-      <c r="F20" s="13">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L20" s="13">
-        <v>0</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="13">
-        <v>19</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="J21" s="13">
-        <v>0</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L21" s="13">
-        <v>0</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="13">
-        <v>35</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="J22" s="13">
-        <v>0</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L22" s="13">
-        <v>0</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="13">
-        <v>10</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="13">
-        <v>10</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="J24" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="L24" s="13">
-        <v>0</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="13">
-        <v>24</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="J25" s="13">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>200</v>
-      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="13">
-        <v>27</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0.39</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="13">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="L26" s="13">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>200</v>
-      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="13">
-        <v>10</v>
-      </c>
-      <c r="F27" s="13">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="13">
-        <v>14</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="J28" s="13">
-        <v>0</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L28" s="13">
-        <v>0</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B29" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="13">
-        <v>15</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L29" s="13">
-        <v>0</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="13">
-        <v>22</v>
-      </c>
-      <c r="F30" s="13">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H30" s="13">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="J30" s="13">
-        <v>0</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L30" s="13">
-        <v>0</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="13">
-        <v>27</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="H31" s="13">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="J31" s="13">
-        <v>0</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L31" s="13">
-        <v>0</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="13">
-        <v>31</v>
-      </c>
-      <c r="F32" s="13">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="H32" s="13">
-        <v>0</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="J32" s="13">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="L32" s="13">
-        <v>0</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B33" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="13">
-        <v>55</v>
-      </c>
-      <c r="F33" s="13">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0.109</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="J33" s="13">
-        <v>0</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L33" s="13">
-        <v>0</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B34" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="13">
-        <v>57</v>
-      </c>
-      <c r="F34" s="13">
-        <v>0.83</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="J34" s="13">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="L34" s="13">
-        <v>0</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29526,7 +28771,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>103</v>
@@ -29570,7 +28815,7 @@
         <v>111</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
@@ -29596,7 +28841,7 @@
         <v>111</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
@@ -29622,7 +28867,7 @@
         <v>111</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
@@ -29648,7 +28893,7 @@
         <v>111</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
@@ -29674,7 +28919,7 @@
         <v>122</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
@@ -29700,7 +28945,7 @@
         <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
@@ -29726,7 +28971,7 @@
         <v>122</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
@@ -29752,7 +28997,7 @@
         <v>122</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
@@ -29778,7 +29023,7 @@
         <v>122</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
@@ -29804,7 +29049,7 @@
         <v>122</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
@@ -29830,7 +29075,7 @@
         <v>122</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.5">
@@ -29856,7 +29101,7 @@
         <v>122</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.5">
